--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail3 Features.xlsx
@@ -5600,7 +5600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5611,29 +5611,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5654,115 +5652,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5779,72 +5767,66 @@
         <v>6.740171571861321e-09</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.3450049789330074</v>
+        <v>2.830600874371064e-08</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.983346589719039</v>
+        <v>3.917816099664961e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.830600874371064e-08</v>
+        <v>-0.0700486809718652</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.917816099664961e-07</v>
+        <v>0.1280546738620378</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.0700486809718652</v>
+        <v>0.02124249346943562</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1280546738620378</v>
+        <v>1.925671981000999</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02124249346943562</v>
+        <v>3.532342154071856</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.952108383325697</v>
+        <v>11.22167315458685</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.532342154071856</v>
+        <v>1.377037841324328e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>11.22167315458685</v>
+        <v>255482682922.0132</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.377037841324328e-19</v>
+        <v>4.71428763746079e-10</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>255482682922.0132</v>
+        <v>8988.118950922713</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.71428763746079e-10</v>
+        <v>2.710154512062939e-06</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>8988.118950922713</v>
+        <v>8.030744327458111</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>2.710154512062939e-06</v>
+        <v>1.833119413798197</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.030744327458111</v>
+        <v>0.0001747856004916181</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.833119413798197</v>
+        <v>8.98651781910986</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0001747856004916181</v>
+        <v>0.958287333954993</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>8.98651781910986</v>
+        <v>0.6968268624332624</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.958287333954993</v>
+        <v>639</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.6968268624332624</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>639</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>20.87053935714841</v>
       </c>
     </row>
@@ -5859,72 +5841,66 @@
         <v>6.460006692604617e-09</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.2481193748549899</v>
+        <v>2.279467404815003e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.324220453937929</v>
+        <v>3.91358825378198e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.279467404815003e-08</v>
+        <v>-0.05884779463560027</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.91358825378198e-07</v>
+        <v>0.08478412915911417</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.05884779463560027</v>
+        <v>0.01062038139974133</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.08478412915911417</v>
+        <v>1.923432002191428</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01062038139974133</v>
+        <v>3.37485967796907</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.953229456214764</v>
+        <v>9.32659243164229</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.37485967796907</v>
+        <v>1.152895175332237e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>9.32659243164229</v>
+        <v>295750281405.0498</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.152895175332237e-19</v>
+        <v>4.05761671222675e-10</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>295750281405.0498</v>
+        <v>10084.16991526549</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.05761671222675e-10</v>
+        <v>2.356385557740573e-06</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>10084.16991526549</v>
+        <v>7.978306511600334</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>2.356385557740573e-06</v>
+        <v>1.827180183186586</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.978306511600334</v>
+        <v>0.0001499918930637774</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.827180183186586</v>
+        <v>9.013219540042964</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0001499918930637774</v>
+        <v>0.9587867037447543</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>9.013219540042964</v>
+        <v>0.655500537572217</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9587867037447543</v>
+        <v>682</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.655500537572217</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>682</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>20.53859346611105</v>
       </c>
     </row>
@@ -5939,72 +5915,66 @@
         <v>6.327376221043959e-09</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2559969667919959</v>
+        <v>1.925224415518285e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.373711917901692</v>
+        <v>3.910108811007657e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.925224415518285e-08</v>
+        <v>-0.05073333535140568</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.910108811007657e-07</v>
+        <v>0.05521135077900491</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.05073333535140568</v>
+        <v>0.005610442347249621</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.05521135077900491</v>
+        <v>1.926239504180269</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.005610442347249621</v>
+        <v>3.513698854627567</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.956209810146648</v>
+        <v>9.769107379324049</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.513698854627567</v>
+        <v>1.050814489474912e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>9.769107379324049</v>
+        <v>313456046021.9236</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.050814489474912e-19</v>
+        <v>3.810643178659202e-10</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>313456046021.9236</v>
+        <v>10324.74548402195</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.810643178659202e-10</v>
+        <v>2.023472344907901e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>10324.74548402195</v>
+        <v>6.526089075215745</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>2.023472344907901e-06</v>
+        <v>2.129001487342571</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>6.526089075215745</v>
+        <v>8.617936061690593e-05</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>2.129001487342571</v>
+        <v>9.059697528211696</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>8.617936061690593e-05</v>
+        <v>0.9591099818176586</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>9.059697528211696</v>
+        <v>0.6136340382154585</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9591099818176586</v>
+        <v>715</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.6136340382154585</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>715</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>20.74570866815795</v>
       </c>
     </row>
@@ -6019,72 +5989,66 @@
         <v>6.26276680883918e-09</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.3015372109588614</v>
+        <v>1.834498690764331e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.341708890571677</v>
+        <v>3.907081468417885e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.834498690764331e-08</v>
+        <v>-0.04610437549997648</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.907081468417885e-07</v>
+        <v>0.04331078504915876</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04610437549997648</v>
+        <v>0.003999172600263088</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.04331078504915876</v>
+        <v>1.911109457858142</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.003999172600263088</v>
+        <v>3.786264283202972</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.950089647703341</v>
+        <v>9.715602896233705</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.786264283202972</v>
+        <v>1.062420171470624e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>9.715602896233705</v>
+        <v>309226893934.0913</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.062420171470624e-19</v>
+        <v>3.844919620713365e-10</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>309226893934.0913</v>
+        <v>10158.99681223682</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.844919620713365e-10</v>
+        <v>1.999714890069531e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>10158.99681223682</v>
+        <v>5.948117337281259</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>1.999714890069531e-06</v>
+        <v>2.286204040403756</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>5.948117337281259</v>
+        <v>7.075011249832124e-05</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>2.286204040403756</v>
+        <v>9.062194163226955</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>7.075011249832124e-05</v>
+        <v>0.959029643995635</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>9.062194163226955</v>
+        <v>0.6257527696859919</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.959029643995635</v>
+        <v>722</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.6257527696859919</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>722</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>21.31791166719965</v>
       </c>
     </row>
@@ -6099,72 +6063,66 @@
         <v>6.218516831173866e-09</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.3574967976558521</v>
+        <v>1.838345023731021e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.287365904407022</v>
+        <v>3.904256812493976e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.838345023731021e-08</v>
+        <v>-0.04499298418988799</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.904256812493976e-07</v>
+        <v>0.04280162103004776</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.04499298418988799</v>
+        <v>0.003856604264087926</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.04280162103004776</v>
+        <v>1.905065800907494</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.003856604264087926</v>
+        <v>3.918132136784261</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.948240936363373</v>
+        <v>9.720202997050855</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.918132136784261</v>
+        <v>1.061414825501291e-19</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>9.720202997050855</v>
+        <v>307805788249.2598</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.061414825501291e-19</v>
+        <v>3.854114401083164e-10</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>307805788249.2598</v>
+        <v>10056.31142743978</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.854114401083164e-10</v>
+        <v>2.139616004342226e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>10056.31142743978</v>
+        <v>6.256878575098816</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>2.139616004342226e-06</v>
+        <v>2.219201032473431</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>6.256878575098816</v>
+        <v>8.376282027221787e-05</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>2.219201032473431</v>
+        <v>9.057722938061396</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>8.376282027221787e-05</v>
+        <v>0.9608863732411138</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>9.057722938061396</v>
+        <v>0.6548460229355536</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9608863732411138</v>
+        <v>721</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.6548460229355536</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>721</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>21.52720701116592</v>
       </c>
     </row>
@@ -6179,72 +6137,66 @@
         <v>6.161090440525274e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.4134582288616366</v>
+        <v>1.842176575858844e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.223754805907046</v>
+        <v>3.901420880707657e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.842176575858844e-08</v>
+        <v>-0.04711457285704713</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.901420880707657e-07</v>
+        <v>0.03889155712929086</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.04711457285704713</v>
+        <v>0.003730434700916236</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.03889155712929086</v>
+        <v>1.901104598238684</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.003730434700916236</v>
+        <v>3.944629671670953</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.949591264565278</v>
+        <v>9.620554125748708</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.944629671670953</v>
+        <v>1.083516787604841e-19</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>9.620554125748708</v>
+        <v>304801870541.724</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.083516787604841e-19</v>
+        <v>3.885428327817936e-10</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>304801870541.724</v>
+        <v>10066.32389782594</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.885428327817936e-10</v>
+        <v>2.219182351659516e-06</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>10066.32389782594</v>
+        <v>7.080524993828384</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>2.219182351659516e-06</v>
+        <v>1.960982972325762</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.080524993828384</v>
+        <v>0.000111256120051541</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.960982972325762</v>
+        <v>9.054382684603539</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.000111256120051541</v>
+        <v>0.9602961362858696</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>9.054382684603539</v>
+        <v>0.6474915426659041</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9602961362858696</v>
+        <v>716</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.6474915426659041</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>716</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>21.01842067596973</v>
       </c>
     </row>
@@ -6259,72 +6211,66 @@
         <v>6.064897066890673e-09</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.4602312776045381</v>
+        <v>1.846511381732728e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.167112077567469</v>
+        <v>3.898430802933806e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.846511381732728e-08</v>
+        <v>-0.05032748925762075</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.898430802933806e-07</v>
+        <v>0.03101883266988158</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.05032748925762075</v>
+        <v>0.00349503070779797</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.03101883266988158</v>
+        <v>1.895539845906257</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.00349503070779797</v>
+        <v>3.412695701618598</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.943700431498321</v>
+        <v>9.883804113251973</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.412695701618598</v>
+        <v>1.142251839697317e-19</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>9.883804113251973</v>
+        <v>296124730974.3082</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.142251839697317e-19</v>
+        <v>4.012585480126843e-10</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>296124730974.3082</v>
+        <v>10016.38996753075</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.012585480126843e-10</v>
+        <v>2.018077482825612e-06</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>10016.38996753075</v>
+        <v>7.227551864588927</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>2.018077482825612e-06</v>
+        <v>1.923074555867255</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.227551864588927</v>
+        <v>0.0001054193345274059</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.923074555867255</v>
+        <v>9.079745264080463</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0001054193345274059</v>
+        <v>0.9614719502366266</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>9.079745264080463</v>
+        <v>0.6273762241896643</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9614719502366266</v>
+        <v>706</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.6273762241896643</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>706</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>20.50851666266544</v>
       </c>
     </row>
@@ -6339,72 +6285,66 @@
         <v>5.937705251894748e-09</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.4970607948015755</v>
+        <v>1.849086784519364e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.126655489317545</v>
+        <v>3.895356294531701e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.849086784519364e-08</v>
+        <v>-0.05189671500705608</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.895356294531701e-07</v>
+        <v>0.03056758841729493</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05189671500705608</v>
+        <v>0.003627985375974402</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.03056758841729493</v>
+        <v>1.902302754957542</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.003627985375974402</v>
+        <v>3.571216908492837</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.947390499764325</v>
+        <v>9.762454378181276</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.571216908492837</v>
+        <v>1.170825278973755e-19</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>9.762454378181276</v>
+        <v>292723285380.4685</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.170825278973755e-19</v>
+        <v>4.048475058810335e-10</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>292723285380.4685</v>
+        <v>10032.44141254948</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.048475058810335e-10</v>
+        <v>1.721222756772276e-06</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>10032.44141254948</v>
+        <v>6.713851025738802</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>1.721222756772276e-06</v>
+        <v>2.083307929855132</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>6.713851025738802</v>
+        <v>7.758548515913056e-05</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>2.083307929855132</v>
+        <v>9.130870117275204</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>7.758548515913056e-05</v>
+        <v>0.9617226433045907</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>9.130870117275204</v>
+        <v>0.6574213147485399</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9617226433045907</v>
+        <v>708</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.6574213147485399</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>708</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>20.56884232655417</v>
       </c>
     </row>
@@ -6419,72 +6359,66 @@
         <v>5.793696101835871e-09</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.5282728614744112</v>
+        <v>1.831031211926179e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.097591118392684</v>
+        <v>3.89228647653105e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.831031211926179e-08</v>
+        <v>-0.05266979770368104</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.89228647653105e-07</v>
+        <v>0.03185527197328594</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.05266979770368104</v>
+        <v>0.003789055431603193</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.03185527197328594</v>
+        <v>1.902767229344262</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.003789055431603193</v>
+        <v>4.075482873471748</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.9469468691572</v>
+        <v>9.440870983883265</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>4.075482873471748</v>
+        <v>1.251947161464273e-19</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>9.440870983883265</v>
+        <v>283977140829.4233</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.251947161464273e-19</v>
+        <v>4.218764959485872e-10</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>283977140829.4233</v>
+        <v>10096.07956161858</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.218764959485872e-10</v>
+        <v>1.661683926139791e-06</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>10096.07956161858</v>
+        <v>6.476379300034574</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>1.661683926139791e-06</v>
+        <v>2.20235477311746</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>6.476379300034574</v>
+        <v>6.969682120818929e-05</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>2.20235477311746</v>
+        <v>9.151357091929995</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>6.969682120818929e-05</v>
+        <v>0.9635504349952791</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>9.151357091929995</v>
+        <v>0.6926098342375019</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9635504349952791</v>
+        <v>718</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.6926098342375019</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>718</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>21.10954151669657</v>
       </c>
     </row>
@@ -6499,72 +6433,66 @@
         <v>5.640105109153816e-09</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.5564228595704859</v>
+        <v>1.797783843509091e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.075764103010715</v>
+        <v>3.889260993327128e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.797783843509091e-08</v>
+        <v>-0.05312312149945454</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.889260993327128e-07</v>
+        <v>0.03329507996318378</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05312312149945454</v>
+        <v>0.003930652086155514</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.03329507996318378</v>
+        <v>1.907160382104176</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.003930652086155514</v>
+        <v>3.751337674092824</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.951779466606804</v>
+        <v>9.349357399516101</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.751337674092824</v>
+        <v>1.276575782747086e-19</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>9.349357399516101</v>
+        <v>280804894456.0186</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.276575782747086e-19</v>
+        <v>4.275036081563025e-10</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>280804894456.0186</v>
+        <v>10065.97733148079</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.275036081563025e-10</v>
+        <v>1.812111582309014e-06</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>10065.97733148079</v>
+        <v>6.272435458575196</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>1.812111582309014e-06</v>
+        <v>2.267872752049508</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>6.272435458575196</v>
+        <v>7.129471523918264e-05</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>2.267872752049508</v>
+        <v>9.1294433974191</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>7.129471523918264e-05</v>
+        <v>0.9640268991244921</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>9.1294433974191</v>
+        <v>0.6810875713987751</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9640268991244921</v>
+        <v>734</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.6810875713987751</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>734</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>21.69381367891871</v>
       </c>
     </row>
@@ -6579,72 +6507,66 @@
         <v>5.481110849596452e-09</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.5829701769622411</v>
+        <v>1.75588237099012e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.058445712227486</v>
+        <v>3.886298758632767e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.75588237099012e-08</v>
+        <v>-0.05339107749644219</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.886298758632767e-07</v>
+        <v>0.03464296500749117</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05339107749644219</v>
+        <v>0.004050607746110537</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.03464296500749117</v>
+        <v>1.905790327460864</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.004050607746110537</v>
+        <v>4.060940950585538</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.953075149047992</v>
+        <v>9.523560431683064</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>4.060940950585538</v>
+        <v>1.230301182402109e-19</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>9.523560431683064</v>
+        <v>284658687888.7344</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.230301182402109e-19</v>
+        <v>4.206099375008284e-10</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>284658687888.7344</v>
+        <v>9969.200434765147</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.206099375008284e-10</v>
+        <v>2.037007656209459e-06</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>9969.200434765147</v>
+        <v>7.235684014834689</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>2.037007656209459e-06</v>
+        <v>2.005921885275171</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.235684014834689</v>
+        <v>0.0001066477867238715</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>2.005921885275171</v>
+        <v>9.090217864941222</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0001066477867238715</v>
+        <v>0.9653878681047563</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>9.090217864941222</v>
+        <v>0.6910609688372545</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9653878681047563</v>
+        <v>732</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.6910609688372545</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>732</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>21.6850241978665</v>
       </c>
     </row>
@@ -6659,72 +6581,66 @@
         <v>5.319465593024116e-09</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.6089801402064556</v>
+        <v>1.708597076409068e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.043377715810245</v>
+        <v>3.883411044940171e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.708597076409068e-08</v>
+        <v>-0.05353271064520124</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.883411044940171e-07</v>
+        <v>0.03586240226495233</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05353271064520124</v>
+        <v>0.004151595020510357</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.03586240226495233</v>
+        <v>1.914537168762255</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.004151595020510357</v>
+        <v>3.874302241802071</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.960527005261734</v>
+        <v>9.503385055092799</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.874302241802071</v>
+        <v>1.23553050594428e-19</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>9.503385055092799</v>
+        <v>286776083638.3087</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.23553050594428e-19</v>
+        <v>4.184550946028633e-10</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>286776083638.3087</v>
+        <v>10161.06739373136</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.184550946028633e-10</v>
+        <v>2.075430412249019e-06</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>10161.06739373136</v>
+        <v>7.652876249719746</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>2.075430412249019e-06</v>
+        <v>1.887754359416416</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.652876249719746</v>
+        <v>0.000121550726149456</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.887754359416416</v>
+        <v>9.052235303508011</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.000121550726149456</v>
+        <v>0.9648998502855368</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>9.052235303508011</v>
+        <v>0.6723490926779243</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9648998502855368</v>
+        <v>752</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.6723490926779243</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>752</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>21.40777745834121</v>
       </c>
     </row>
@@ -6739,72 +6655,66 @@
         <v>5.157199389264327e-09</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.6354171239227376</v>
+        <v>1.656942846174761e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.02818078995203</v>
+        <v>3.880605816065576e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.656942846174761e-08</v>
+        <v>-0.05354834793856028</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.880605816065576e-07</v>
+        <v>0.03693240610963448</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05354834793856028</v>
+        <v>0.004231025396498752</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.03693240610963448</v>
+        <v>1.918871870991863</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.004231025396498752</v>
+        <v>3.961221003797546</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.963079445600253</v>
+        <v>9.343347332025475</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.961221003797546</v>
+        <v>1.147938364757863e-19</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>9.343347332025475</v>
+        <v>305077938234.4469</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.147938364757863e-19</v>
+        <v>3.932195491707632e-10</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>305077938234.4469</v>
+        <v>10684.15490111366</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.932195491707632e-10</v>
+        <v>1.990132589556777e-06</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>10684.15490111366</v>
+        <v>6.714938736232872</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>1.990132589556777e-06</v>
+        <v>2.031764392169133</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>6.714938736232872</v>
+        <v>8.973587895685459e-05</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>2.031764392169133</v>
+        <v>9.041803163652954</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>8.973587895685459e-05</v>
+        <v>0.9644006695430604</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>9.041803163652954</v>
+        <v>0.6457553795490888</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9644006695430604</v>
+        <v>757</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.6457553795490888</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>757</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>21.37728254094584</v>
       </c>
     </row>
@@ -6819,72 +6729,66 @@
         <v>4.996042227388159e-09</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.6633318524960721</v>
+        <v>1.602207363502781e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.00978620996854</v>
+        <v>3.877889535378458e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.602207363502781e-08</v>
+        <v>-0.05345033821724601</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.877889535378458e-07</v>
+        <v>0.03783683449540419</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05345033821724601</v>
+        <v>0.004288028757748925</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.03783683449540419</v>
+        <v>1.922227949312135</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.004288028757748925</v>
+        <v>4.009925884635903</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.966557069780411</v>
+        <v>9.525056172675942</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>4.009925884635903</v>
+        <v>1.104557850904726e-19</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>9.525056172675942</v>
+        <v>310979221468.3195</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.104557850904726e-19</v>
+        <v>3.856597223014153e-10</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>310979221468.3195</v>
+        <v>10681.96647960807</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.856597223014153e-10</v>
+        <v>2.044290369853892e-06</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>10681.96647960807</v>
+        <v>5.87892575272558</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>2.044290369853892e-06</v>
+        <v>2.268841414055468</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>5.87892575272558</v>
+        <v>7.06542894999129e-05</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>2.268841414055468</v>
+        <v>9.040609545287012</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>7.06542894999129e-05</v>
+        <v>0.9649038667287448</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>9.040609545287012</v>
+        <v>0.6299467781998063</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9649038667287448</v>
+        <v>759</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.6299467781998063</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>759</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>21.68022750572396</v>
       </c>
     </row>
@@ -6899,72 +6803,66 @@
         <v>4.837451910949364e-09</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.6937552386054772</v>
+        <v>1.545809746452122e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.9846352630461013</v>
+        <v>3.875266091481669e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.545809746452122e-08</v>
+        <v>-0.05325974542402915</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.875266091481669e-07</v>
+        <v>0.03859057848910987</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05325974542402915</v>
+        <v>0.004325230204541466</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.03859057848910987</v>
+        <v>1.921064298108446</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.004325230204541466</v>
+        <v>4.392208154440372</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.967329359644105</v>
+        <v>9.568732766223873</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>4.392208154440372</v>
+        <v>1.094497329439919e-19</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>9.568732766223873</v>
+        <v>311828480223.8618</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.094497329439919e-19</v>
+        <v>3.84898579882194e-10</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>311828480223.8618</v>
+        <v>10642.56380034092</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.84898579882194e-10</v>
+        <v>2.235217876255152e-06</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>10642.56380034092</v>
+        <v>5.686114977372246</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>2.235217876255152e-06</v>
+        <v>2.445909368328505</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>5.686114977372246</v>
+        <v>7.22688487567941e-05</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>2.445909368328505</v>
+        <v>9.013209187318454</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>7.22688487567941e-05</v>
+        <v>0.9655162238494382</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>9.013209187318454</v>
+        <v>0.6478152882451966</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9655162238494382</v>
+        <v>749</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.6478152882451966</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>749</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>22.01290990619756</v>
       </c>
     </row>
@@ -6979,72 +6877,66 @@
         <v>4.68206207116372e-09</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.7274240755197856</v>
+        <v>1.490581279452063e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.9497192937148351</v>
+        <v>3.872736405331667e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.490581279452063e-08</v>
+        <v>-0.05306110051646011</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.872736405331667e-07</v>
+        <v>0.03937739715697754</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05306110051646011</v>
+        <v>0.004365514369949157</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.03937739715697754</v>
+        <v>1.91985084894708</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.004365514369949157</v>
+        <v>4.254568635550092</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.965093741804077</v>
+        <v>9.585956582766466</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>4.254568635550092</v>
+        <v>1.090567729893833e-19</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>9.585956582766466</v>
+        <v>312023713901.4797</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.090567729893833e-19</v>
+        <v>3.845463670663853e-10</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>312023713901.4797</v>
+        <v>10617.63633602642</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.845463670663853e-10</v>
+        <v>2.516268117740073e-06</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>10617.63633602642</v>
+        <v>6.477860493685007</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>2.516268117740073e-06</v>
+        <v>2.22761484529377</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>6.477860493685007</v>
+        <v>0.0001055893452023336</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>2.22761484529377</v>
+        <v>8.963422766238269</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0001055893452023336</v>
+        <v>0.9661026264349946</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>8.963422766238269</v>
+        <v>0.6449479210954181</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9661026264349946</v>
+        <v>737</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.6449479210954181</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>737</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>21.96144638749545</v>
       </c>
     </row>
@@ -7059,72 +6951,66 @@
         <v>4.529235535203105e-09</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.764266391917623</v>
+        <v>1.439141752230483e-08</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.9043863131600789</v>
+        <v>3.870295407820834e-07</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.439141752230483e-08</v>
+        <v>-0.05295845263901532</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.870295407820834e-07</v>
+        <v>0.04033780837613961</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05295845263901532</v>
+        <v>0.004431232884647761</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.04033780837613961</v>
+        <v>1.917982528694029</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.004431232884647761</v>
+        <v>3.872743443053379</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.964984599025004</v>
+        <v>9.509837160308209</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3.872743443053379</v>
+        <v>1.108096025202895e-19</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>9.509837160308209</v>
+        <v>309365523424.832</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.108096025202895e-19</v>
+        <v>3.875323311028781e-10</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>309365523424.832</v>
+        <v>10605.25762956779</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>3.875323311028781e-10</v>
+        <v>2.648275894172094e-06</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>10605.25762956779</v>
+        <v>7.185952895395541</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>2.648275894172094e-06</v>
+        <v>2.03413217138718</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.185952895395541</v>
+        <v>0.000136751456152221</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>2.03413217138718</v>
+        <v>8.909580372245772</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.000136751456152221</v>
+        <v>0.9658523116415001</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>8.909580372245772</v>
+        <v>0.6346072032983896</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9658523116415001</v>
+        <v>726</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.6346072032983896</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>726</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>21.72819868077646</v>
       </c>
     </row>
@@ -7139,72 +7025,66 @@
         <v>4.378357810652793e-09</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.8041447189266219</v>
+        <v>1.390463892523693e-08</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.8481442239169139</v>
+        <v>3.867937768934869e-07</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.390463892523693e-08</v>
+        <v>-0.05293018353334732</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.867937768934869e-07</v>
+        <v>0.04142111965644128</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05293018353334732</v>
+        <v>0.004516844984106645</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.04142111965644128</v>
+        <v>1.91538310359181</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.004516844984106645</v>
+        <v>4.351387370097823</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.962845103971689</v>
+        <v>9.683818101923567</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>4.351387370097823</v>
+        <v>1.12045343944352e-19</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>9.683818101923567</v>
+        <v>307611809179.9536</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.12045343944352e-19</v>
+        <v>3.884877868082218e-10</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>307611809179.9536</v>
+        <v>10602.29348833456</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.884877868082218e-10</v>
+        <v>2.510434554596187e-06</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>10602.29348833456</v>
+        <v>6.255324609764417</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>2.510434554596187e-06</v>
+        <v>2.208071842225245</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>6.255324609764417</v>
+        <v>9.823100951770053e-05</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>2.208071842225245</v>
+        <v>8.892177192089225</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>9.823100951770053e-05</v>
+        <v>0.9668100170920297</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>8.892177192089225</v>
+        <v>0.6461244194698339</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9668100170920297</v>
+        <v>717</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.6461244194698339</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>717</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>21.81050603590793</v>
       </c>
     </row>
@@ -7219,72 +7099,66 @@
         <v>4.228797987474698e-09</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.8470216061645709</v>
+        <v>1.342988342070341e-08</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.7802692218672442</v>
+        <v>3.86566002099243e-07</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.342988342070341e-08</v>
+        <v>-0.05293065963823679</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.86566002099243e-07</v>
+        <v>0.04270040059300548</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05293065963823679</v>
+        <v>0.00462453787364631</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.04270040059300548</v>
+        <v>1.91856861158132</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.00462453787364631</v>
+        <v>3.868210911528634</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.961881654707563</v>
+        <v>9.976271398096657</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.868210911528634</v>
+        <v>1.131266193152334e-19</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>9.976271398096657</v>
+        <v>302903057303.7253</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.131266193152334e-19</v>
+        <v>3.96874004011628e-10</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>302903057303.7253</v>
+        <v>10379.39697536828</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.96874004011628e-10</v>
+        <v>2.428596074413955e-06</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>10379.39697536828</v>
+        <v>5.303985915447282</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>2.428596074413955e-06</v>
+        <v>2.547703472542352</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>5.303985915447282</v>
+        <v>6.832191220790855e-05</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>2.547703472542352</v>
+        <v>8.917719513142078</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>6.832191220790855e-05</v>
+        <v>0.96660586131583</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>8.917719513142078</v>
+        <v>0.6603234440686249</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.96660586131583</v>
+        <v>701</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.6603234440686249</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>701</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>22.28158107802093</v>
       </c>
     </row>
@@ -7299,72 +7173,66 @@
         <v>4.079939666555791e-09</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.8929308074091101</v>
+        <v>1.297436416226207e-08</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.6998222984671165</v>
+        <v>3.863460010563093e-07</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.297436416226207e-08</v>
+        <v>-0.05300111552228103</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.863460010563093e-07</v>
+        <v>0.0441089813330558</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05300111552228103</v>
+        <v>0.0047542817053878</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.0441089813330558</v>
+        <v>1.922666279040059</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.0047542817053878</v>
+        <v>4.075739556637724</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.961220664680549</v>
+        <v>9.676711827978419</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>4.075739556637724</v>
+        <v>1.202390963158793e-19</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>9.676711827978419</v>
+        <v>295319015749.9418</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.202390963158793e-19</v>
+        <v>4.070329777319323e-10</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>295319015749.9418</v>
+        <v>10486.45091138361</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>4.070329777319323e-10</v>
+        <v>2.573845488408613e-06</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>10486.45091138361</v>
+        <v>5.563406424088926</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>2.573845488408613e-06</v>
+        <v>2.546207588068097</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>5.563406424088926</v>
+        <v>7.966435557177846e-05</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>2.546207588068097</v>
+        <v>8.95732665040034</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>7.966435557177846e-05</v>
+        <v>0.966358033007867</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>8.95732665040034</v>
+        <v>0.6925247500937951</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.966358033007867</v>
+        <v>699</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.6925247500937951</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>699</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>22.72224116301831</v>
       </c>
     </row>
@@ -7379,72 +7247,66 @@
         <v>3.931508091131297e-09</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.941876502877408</v>
+        <v>1.2544502066214e-08</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.6055848233953478</v>
+        <v>3.861333871900843e-07</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.2544502066214e-08</v>
+        <v>-0.05317969498793349</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3.861333871900843e-07</v>
+        <v>0.04564357827717295</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05317969498793349</v>
+        <v>0.004911014994541012</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.04564357827717295</v>
+        <v>1.926175012826835</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.004911014994541012</v>
+        <v>4.078654656053501</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.962754198463432</v>
+        <v>9.738947871749147</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>4.078654656053501</v>
+        <v>1.187072480471459e-19</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>9.738947871749147</v>
+        <v>296187991191.5295</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.187072480471459e-19</v>
+        <v>4.069231993870547e-10</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>296187991191.5295</v>
+        <v>10413.86946296068</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>4.069231993870547e-10</v>
+        <v>2.862708756767495e-06</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>10413.86946296068</v>
+        <v>6.249924510412275</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>2.862708756767495e-06</v>
+        <v>2.130697984026407</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>6.249924510412275</v>
+        <v>0.0001118218595187461</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>2.130697984026407</v>
+        <v>8.999389363132368</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.0001118218595187461</v>
+        <v>0.9654581754566063</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>8.999389363132368</v>
+        <v>0.6900569940261607</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9654581754566063</v>
+        <v>708</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.6900569940261607</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>708</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>22.54369930351239</v>
       </c>
     </row>
@@ -7459,72 +7321,66 @@
         <v>3.783008286744203e-09</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.9937247687275329</v>
+        <v>1.213481561032375e-08</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.4967579173352354</v>
+        <v>3.85927741481876e-07</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.213481561032375e-08</v>
+        <v>-0.05346221518931824</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3.85927741481876e-07</v>
+        <v>0.04733879023262208</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.05346221518931824</v>
+        <v>0.005098769677901916</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.04733879023262208</v>
+        <v>1.92539504895802</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.005098769677901916</v>
+        <v>4.139673254533522</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.962570867431417</v>
+        <v>9.43520210929486</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>4.139673254533522</v>
+        <v>1.123528835052487e-19</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>9.43520210929486</v>
+        <v>304993910770.0335</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.123528835052487e-19</v>
+        <v>3.945617343809151e-10</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>304993910770.0335</v>
+        <v>10451.20966528918</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.945617343809151e-10</v>
+        <v>2.66273464858213e-06</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>10451.20966528918</v>
+        <v>7.181978586612801</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>2.66273464858213e-06</v>
+        <v>1.885094712546629</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>7.181978586612801</v>
+        <v>0.0001373460270798666</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.885094712546629</v>
+        <v>9.056809297353931</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.0001373460270798666</v>
+        <v>0.9654919855911583</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>9.056809297353931</v>
+        <v>0.6678996864582035</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9654919855911583</v>
+        <v>723</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.6678996864582035</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>723</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>21.85310218335927</v>
       </c>
     </row>
@@ -7539,72 +7395,66 @@
         <v>3.634046346808207e-09</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.048458135548667</v>
+        <v>1.173942033067831e-08</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.3720973886138883</v>
+        <v>3.857288095572385e-07</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.173942033067831e-08</v>
+        <v>-0.05384013045398015</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.857288095572385e-07</v>
+        <v>0.04920751800350847</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05384013045398015</v>
+        <v>0.005319749646309564</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.04920751800350847</v>
+        <v>1.926973921606525</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.005319749646309564</v>
+        <v>4.120506366822124</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.964102506022545</v>
+        <v>9.682704675912703</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>4.120506366822124</v>
+        <v>1.066825200403858e-19</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>9.682704675912703</v>
+        <v>316891584066.9348</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.066825200403858e-19</v>
+        <v>3.784948673984871e-10</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>316891584066.9348</v>
+        <v>10713.0881124267</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.784948673984871e-10</v>
+        <v>2.074844192744738e-06</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>10713.0881124267</v>
+        <v>7.107160225099705</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>2.074844192744738e-06</v>
+        <v>2.043581006889564</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>7.107160225099705</v>
+        <v>0.0001048039623219124</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>2.043581006889564</v>
+        <v>9.093464407701562</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.0001048039623219124</v>
+        <v>0.965654204894319</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>9.093464407701562</v>
+        <v>0.6418426436981384</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.965654204894319</v>
+        <v>737</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.6418426436981384</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>737</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>21.40200393275296</v>
       </c>
     </row>
@@ -7981,7 +7831,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.405166760187653</v>
+        <v>1.397294448289928</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.459807834826619</v>
@@ -8070,7 +7920,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.397442443440766</v>
+        <v>1.387155333737613</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.3626659463073</v>
@@ -8159,7 +8009,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.379339053098731</v>
+        <v>1.371150448443919</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.344268333275622</v>
@@ -8248,7 +8098,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.37732678794583</v>
+        <v>1.368006678691154</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.417555992201905</v>
@@ -8337,7 +8187,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.374404684059936</v>
+        <v>1.366739360789856</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.437210550410987</v>
@@ -8426,7 +8276,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.353738094550961</v>
+        <v>1.346364843487153</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.323088993725467</v>
@@ -8515,7 +8365,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.31231286635201</v>
+        <v>1.295857856358767</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.352154031165655</v>
@@ -8604,7 +8454,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.310898342392606</v>
+        <v>1.290877454487418</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.36739238240159</v>
@@ -8693,7 +8543,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.318743130265744</v>
+        <v>1.297807457543247</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.276069696115049</v>
@@ -8782,7 +8632,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.337411387344356</v>
+        <v>1.318499225835191</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.197895507876419</v>
@@ -8871,7 +8721,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.345643456360107</v>
+        <v>1.327757399428131</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.046210662601313</v>
@@ -8960,7 +8810,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.348529514464925</v>
+        <v>1.329052918088147</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.012827866871146</v>
@@ -9049,7 +8899,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.359280644833604</v>
+        <v>1.34952894504793</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.103490387127043</v>
@@ -9138,7 +8988,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.357214362535378</v>
+        <v>1.346610831777204</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.260892181034108</v>
@@ -9227,7 +9077,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.3767926724644</v>
+        <v>1.366938348848105</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.207015041739647</v>
@@ -9316,7 +9166,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.377997111188565</v>
+        <v>1.36721787883012</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.122337149157314</v>
@@ -9405,7 +9255,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.386825234986702</v>
+        <v>1.372153057525322</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.100521672091731</v>
@@ -9494,7 +9344,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.421821663080787</v>
+        <v>1.404014372448857</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.118965780333197</v>
@@ -9583,7 +9433,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.42818140640222</v>
+        <v>1.40940636386873</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.239656690249883</v>
@@ -9672,7 +9522,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.463442986649036</v>
+        <v>1.435853478027687</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.326004296748049</v>
@@ -9761,7 +9611,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.475146850883247</v>
+        <v>1.450504127842484</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.082550195956379</v>
@@ -9850,7 +9700,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.474055846712698</v>
+        <v>1.44769518724761</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.12850659434521</v>
@@ -9939,7 +9789,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.479785661736081</v>
+        <v>1.45168739932633</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.102916375296945</v>
@@ -10028,7 +9878,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.441627298452026</v>
+        <v>1.416430877415007</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.121641361934266</v>
@@ -10117,7 +9967,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.43311003529466</v>
+        <v>1.405920832512575</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.073687465267797</v>
@@ -10206,7 +10056,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.438393576889925</v>
+        <v>1.412441076420893</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.1126059627116</v>
@@ -10295,7 +10145,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.480578370950794</v>
+        <v>1.447904467475652</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.971419416450814</v>
@@ -10384,7 +10234,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.493356678474406</v>
+        <v>1.462087677600016</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.160227577320514</v>
@@ -10473,7 +10323,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.498789352586701</v>
+        <v>1.46920676869651</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.154646005332498</v>
@@ -10562,7 +10412,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.465417349944124</v>
+        <v>1.442062347902329</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.083391656508181</v>
@@ -10651,7 +10501,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.461888891542352</v>
+        <v>1.445157799310744</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.113723216291862</v>
@@ -10740,7 +10590,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.478510017418596</v>
+        <v>1.456812780426577</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.075933045488482</v>
@@ -10829,7 +10679,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.444250068776195</v>
+        <v>1.439670230372407</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.169979789859626</v>
@@ -10918,7 +10768,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.482171529294097</v>
+        <v>1.47440569944029</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.143299762964053</v>
@@ -11007,7 +10857,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.459306664373164</v>
+        <v>1.452851505877116</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.114685501957715</v>
@@ -11096,7 +10946,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.460323358434603</v>
+        <v>1.453926676841147</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.084055301689999</v>
@@ -11185,7 +11035,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.433471112327312</v>
+        <v>1.430142203417811</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.151505821055097</v>
@@ -11274,7 +11124,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.431645149849654</v>
+        <v>1.428421185894351</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.217132500385261</v>
@@ -11363,7 +11213,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.435079577126351</v>
+        <v>1.430350509911156</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.194199980210944</v>
@@ -11452,7 +11302,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.441200447218049</v>
+        <v>1.434261875497478</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.171945507002234</v>
@@ -11541,7 +11391,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.412735149805186</v>
+        <v>1.406822380801803</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.216976118593357</v>
@@ -11630,7 +11480,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.405291752300129</v>
+        <v>1.402172915568697</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.192959283518415</v>
@@ -11719,7 +11569,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.362094573603637</v>
+        <v>1.354746035914151</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.196807600204649</v>
@@ -11808,7 +11658,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.352060951028629</v>
+        <v>1.347233274615796</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.212760244199182</v>
@@ -11897,7 +11747,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.368394665432563</v>
+        <v>1.362288518777003</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.194658205527585</v>
@@ -11986,7 +11836,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.346247072844749</v>
+        <v>1.337497820434906</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.37349741122833</v>
@@ -12075,7 +11925,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.350909646400786</v>
+        <v>1.335370831146196</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.085598532307196</v>
@@ -12164,7 +12014,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.357209449020543</v>
+        <v>1.343865963151363</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.377181191249691</v>
@@ -12253,7 +12103,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.341174015882018</v>
+        <v>1.326320774019134</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.109225366498511</v>
@@ -12342,7 +12192,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.330223397156441</v>
+        <v>1.31822851985146</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.234745907149459</v>
@@ -12431,7 +12281,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.309295526331829</v>
+        <v>1.299207030129798</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.301808794196238</v>
@@ -12520,7 +12370,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.31179977351011</v>
+        <v>1.297077267622644</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.304713453249861</v>
@@ -12609,7 +12459,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.310832409546999</v>
+        <v>1.296829610265298</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.341046153763104</v>
@@ -12698,7 +12548,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.311898446008306</v>
+        <v>1.291923591587236</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.303295675300543</v>
@@ -12787,7 +12637,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.291545018965236</v>
+        <v>1.275933483698723</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.424071156651259</v>
@@ -12876,7 +12726,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.313320003786809</v>
+        <v>1.295912590515204</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.289508654421855</v>
@@ -12965,7 +12815,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.294961690099447</v>
+        <v>1.277185459276971</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.393909869974805</v>
@@ -13054,7 +12904,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.323139250529648</v>
+        <v>1.308111728952664</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.141998480781858</v>
@@ -13143,7 +12993,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.30949674661426</v>
+        <v>1.297207527465579</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.197636738834095</v>
@@ -13232,7 +13082,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.302323858674451</v>
+        <v>1.286806243852771</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.065304991822262</v>
@@ -13321,7 +13171,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.305514699825792</v>
+        <v>1.29708541146521</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.205827514968803</v>
@@ -13410,7 +13260,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.31907593543074</v>
+        <v>1.308967219221695</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.177875839881012</v>
@@ -13499,7 +13349,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.315136075860819</v>
+        <v>1.298099482600846</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.17306274785113</v>
@@ -13588,7 +13438,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.323167080058476</v>
+        <v>1.300755579633175</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.309447608540343</v>
@@ -13677,7 +13527,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.327075889516363</v>
+        <v>1.309823210880695</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.193394086486625</v>
@@ -13766,7 +13616,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.327401596163086</v>
+        <v>1.312566190787207</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.322370392122737</v>
@@ -13855,7 +13705,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.329855932181469</v>
+        <v>1.318009989137795</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.219652577267798</v>
@@ -13944,7 +13794,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.343399077674856</v>
+        <v>1.330551019229661</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.421947292630974</v>
@@ -14230,7 +14080,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.467788041401436</v>
+        <v>1.48921996264134</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.097260274962058</v>
@@ -14319,7 +14169,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.469420123774879</v>
+        <v>1.489512235845818</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.103881499579824</v>
@@ -14408,7 +14258,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.465641587369199</v>
+        <v>1.490011703634664</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.096605378889628</v>
@@ -14497,7 +14347,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.467696793482715</v>
+        <v>1.48985955860614</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.068930096703491</v>
@@ -14586,7 +14436,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.464221844199716</v>
+        <v>1.48798980030527</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.044712450713733</v>
@@ -14675,7 +14525,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.472622988614562</v>
+        <v>1.493216678719306</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.902167724343613</v>
@@ -14764,7 +14614,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.476239511397</v>
+        <v>1.484620006442594</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.978299166369491</v>
@@ -14853,7 +14703,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.48403908908924</v>
+        <v>1.494616608209896</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.093484214856669</v>
@@ -14942,7 +14792,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.474717739311764</v>
+        <v>1.479744897256312</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.999246302405962</v>
@@ -15031,7 +14881,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.472232239306672</v>
+        <v>1.476514269151692</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.978772994953832</v>
@@ -15120,7 +14970,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.477986850331849</v>
+        <v>1.481367250138337</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.94067183073696</v>
@@ -15209,7 +15059,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.521445240660232</v>
+        <v>1.525393762764093</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.825915958330704</v>
@@ -15298,7 +15148,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.516683633134528</v>
+        <v>1.517624144352123</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.612605167472275</v>
@@ -15387,7 +15237,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.526269643725209</v>
+        <v>1.525358918881049</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.782149535127204</v>
@@ -15476,7 +15326,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.534763501777751</v>
+        <v>1.534046056712497</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.779091645435847</v>
@@ -15565,7 +15415,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.531457649818618</v>
+        <v>1.524840298271193</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.560136816668967</v>
@@ -15654,7 +15504,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.530667515309065</v>
+        <v>1.52420209279014</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.554868021745648</v>
@@ -15743,7 +15593,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.51887732885299</v>
+        <v>1.512186368420144</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.546341740589094</v>
@@ -15832,7 +15682,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.513035001558088</v>
+        <v>1.498671470914788</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.563225419447741</v>
@@ -15921,7 +15771,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.50857400558843</v>
+        <v>1.493651867571272</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.732828451576947</v>
@@ -16010,7 +15860,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.519903837103349</v>
+        <v>1.504668992867063</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.873762814033877</v>
@@ -16099,7 +15949,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.497858431501405</v>
+        <v>1.484990478403223</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.753827881153057</v>
@@ -16188,7 +16038,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.477075813939518</v>
+        <v>1.463126746858923</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.681207753065739</v>
@@ -16277,7 +16127,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.460609080879125</v>
+        <v>1.448737625392296</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.607966783907279</v>
@@ -16366,7 +16216,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.452482724261379</v>
+        <v>1.444909529894827</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.420678755764682</v>
@@ -16455,7 +16305,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.4383221271956</v>
+        <v>1.429922845288159</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.438405038901383</v>
@@ -16544,7 +16394,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.426841157320478</v>
+        <v>1.422493382446897</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.48530917603431</v>
@@ -16633,7 +16483,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.420282287153492</v>
+        <v>1.414608299109898</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.630825859279454</v>
@@ -16722,7 +16572,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.408476888567424</v>
+        <v>1.401872851849084</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.609768666804145</v>
@@ -16811,7 +16661,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.405329782435465</v>
+        <v>1.395513357293688</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.577405438026419</v>
@@ -16900,7 +16750,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.407588048377232</v>
+        <v>1.401027998640254</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.534841977174492</v>
@@ -16989,7 +16839,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.414223084854235</v>
+        <v>1.401798500381048</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.20403489313923</v>
@@ -17078,7 +16928,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.422235247978974</v>
+        <v>1.412129506822705</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.257799527262532</v>
@@ -17167,7 +17017,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.440916599959881</v>
+        <v>1.430472105314442</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.347120067782257</v>
@@ -17256,7 +17106,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.447668843457496</v>
+        <v>1.439958194458501</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.556503416817708</v>
@@ -17345,7 +17195,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.437561551648254</v>
+        <v>1.425443650574697</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.561755666451158</v>
@@ -17434,7 +17284,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.449774971791085</v>
+        <v>1.431758490518444</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.532035544398358</v>
@@ -17523,7 +17373,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.445950966670992</v>
+        <v>1.429709402702746</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.528023028097664</v>
@@ -17612,7 +17462,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.453294746141921</v>
+        <v>1.436183290454467</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.333372659534091</v>
@@ -17701,7 +17551,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.451487428538432</v>
+        <v>1.431114569141465</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.560987103718688</v>
@@ -17790,7 +17640,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.444926605546146</v>
+        <v>1.417437609173173</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.621793058765509</v>
@@ -17879,7 +17729,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.451051534247397</v>
+        <v>1.425970266989165</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.45841931485341</v>
@@ -17968,7 +17818,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.450788705575971</v>
+        <v>1.424800396453204</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.447454577073724</v>
@@ -18057,7 +17907,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.459287970928708</v>
+        <v>1.434653437887479</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.484622107771461</v>
@@ -18146,7 +17996,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.463636110221259</v>
+        <v>1.443565403359728</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.547677583825857</v>
@@ -18235,7 +18085,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.461631237998127</v>
+        <v>1.43973031690972</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.444658453004031</v>
@@ -18324,7 +18174,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.473373988917758</v>
+        <v>1.455174447370769</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.382431208925506</v>
@@ -18413,7 +18263,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.477998764888333</v>
+        <v>1.459838747076832</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.369359935564129</v>
@@ -18502,7 +18352,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.473065475933469</v>
+        <v>1.455242393257565</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.607091821105203</v>
@@ -18591,7 +18441,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.471934428904005</v>
+        <v>1.452332914458243</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.541288755169894</v>
@@ -18680,7 +18530,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.472495587513542</v>
+        <v>1.457762337174431</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.505707017825478</v>
@@ -18769,7 +18619,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.460206871650756</v>
+        <v>1.448321444732798</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.468962034714844</v>
@@ -18858,7 +18708,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.4808097405699</v>
+        <v>1.464525383373058</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.306744942892819</v>
@@ -18947,7 +18797,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.501123771780642</v>
+        <v>1.475389823773751</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.299613031904624</v>
@@ -19036,7 +18886,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.506976224483221</v>
+        <v>1.481061881604427</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.252207678479226</v>
@@ -19125,7 +18975,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.518796746588523</v>
+        <v>1.496630964132322</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.855306488942022</v>
@@ -19214,7 +19064,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.518772948107378</v>
+        <v>1.49515968311318</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.892742647462496</v>
@@ -19303,7 +19153,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.546526289820009</v>
+        <v>1.522900735518308</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.631777880149873</v>
@@ -19392,7 +19242,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.541525701437571</v>
+        <v>1.520134243619646</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.600692139705034</v>
@@ -19481,7 +19331,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.530844458826365</v>
+        <v>1.511699753882331</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.579907098388532</v>
@@ -19570,7 +19420,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.524343377730665</v>
+        <v>1.5063800298329</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.845129499239273</v>
@@ -19659,7 +19509,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.505829001651537</v>
+        <v>1.489671386083712</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.571088120009801</v>
@@ -19748,7 +19598,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.491220521365934</v>
+        <v>1.472691827515006</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.778338976668246</v>
@@ -19837,7 +19687,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.490277848853633</v>
+        <v>1.466507098370448</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.750057525373421</v>
@@ -19926,7 +19776,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.488689499763568</v>
+        <v>1.471464678351019</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.73939673790652</v>
@@ -20015,7 +19865,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.48256476553389</v>
+        <v>1.46284762619195</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.691858063937707</v>
@@ -20104,7 +19954,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.493890416380756</v>
+        <v>1.467306555954596</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.920012439441264</v>
@@ -20193,7 +20043,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.492931719314524</v>
+        <v>1.464244742229641</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.97474508492976</v>
@@ -20479,7 +20329,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.707354222559043</v>
+        <v>1.683204539371015</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.669536779198415</v>
@@ -20568,7 +20418,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.713599921190746</v>
+        <v>1.691244740474791</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.737259134161552</v>
@@ -20657,7 +20507,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.71300722691274</v>
+        <v>1.695399428453746</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.777566141493002</v>
@@ -20746,7 +20596,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.695309994366404</v>
+        <v>1.68099663951687</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.637575406607267</v>
@@ -20835,7 +20685,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.69166693710342</v>
+        <v>1.676925778196093</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.741727782213982</v>
@@ -20924,7 +20774,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.679235759008056</v>
+        <v>1.658833815431586</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.504168702185312</v>
@@ -21013,7 +20863,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.645767473346366</v>
+        <v>1.630213288445402</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.315351742486929</v>
@@ -21102,7 +20952,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.638358779162802</v>
+        <v>1.617977762856494</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.184398573731339</v>
@@ -21191,7 +21041,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.632862321262255</v>
+        <v>1.607560491584904</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.6415628994607</v>
@@ -21280,7 +21130,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.626320057407692</v>
+        <v>1.604769845094381</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.505295752859986</v>
@@ -21369,7 +21219,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.61812151414776</v>
+        <v>1.59727317892898</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.007201148508383</v>
@@ -21458,7 +21308,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.611869525581203</v>
+        <v>1.59099236138331</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.061342970261289</v>
@@ -21547,7 +21397,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.605881879117639</v>
+        <v>1.584038225225185</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.519180027610121</v>
@@ -21636,7 +21486,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.591914677248864</v>
+        <v>1.566960759357074</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.471853432215135</v>
@@ -21725,7 +21575,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.602873336923149</v>
+        <v>1.578937364417194</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.986894965038978</v>
@@ -21814,7 +21664,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.600877718402149</v>
+        <v>1.577009644117818</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.14388831164108</v>
@@ -21903,7 +21753,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.59946443537722</v>
+        <v>1.572495847276327</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.027405751763742</v>
@@ -21992,7 +21842,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.597353628734582</v>
+        <v>1.567296239947143</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.798227354322671</v>
@@ -22081,7 +21931,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.598969733268457</v>
+        <v>1.570124206882956</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.153865530091652</v>
@@ -22170,7 +22020,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.609451824847949</v>
+        <v>1.580784222483337</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.904213175224276</v>
@@ -22259,7 +22109,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.610511053466172</v>
+        <v>1.581643829976997</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.262933356762871</v>
@@ -22348,7 +22198,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.61612989543185</v>
+        <v>1.585272584162716</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.517418362356563</v>
@@ -22437,7 +22287,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.602752098234092</v>
+        <v>1.568487621910938</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.418998533718692</v>
@@ -22526,7 +22376,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.600419147795692</v>
+        <v>1.563414521261979</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.230197202666228</v>
@@ -22615,7 +22465,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.597046526787588</v>
+        <v>1.55841285506423</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.377978853484531</v>
@@ -22704,7 +22554,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.601050019933781</v>
+        <v>1.557280112846345</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.564076089170808</v>
@@ -22793,7 +22643,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.616161899411895</v>
+        <v>1.566144187416542</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.519159199494249</v>
@@ -22882,7 +22732,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.621957752722651</v>
+        <v>1.568120735855292</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.239066126324468</v>
@@ -22971,7 +22821,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.63053496975369</v>
+        <v>1.574076347920305</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.393490430166054</v>
@@ -23060,7 +22910,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.615839743867198</v>
+        <v>1.560718812707917</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.120193165046837</v>
@@ -23149,7 +22999,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.61406882163291</v>
+        <v>1.556243842475486</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.087321021809047</v>
@@ -23238,7 +23088,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.614433491033534</v>
+        <v>1.556418286339477</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.018745620554544</v>
@@ -23327,7 +23177,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.61860643881525</v>
+        <v>1.565154788183617</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.460048641315837</v>
@@ -23416,7 +23266,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.627992001455228</v>
+        <v>1.565816411348853</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.394976793272068</v>
@@ -23505,7 +23355,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.617714332193231</v>
+        <v>1.558006991239669</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.097949066838453</v>
@@ -23594,7 +23444,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.60890883409598</v>
+        <v>1.541794870976607</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.262975623472358</v>
@@ -23683,7 +23533,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.588470928059033</v>
+        <v>1.523195491124784</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.34473090003256</v>
@@ -23772,7 +23622,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.586908192560187</v>
+        <v>1.523549119583434</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.952482445917374</v>
@@ -23861,7 +23711,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.589605925693797</v>
+        <v>1.52594589198857</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.285585781104012</v>
@@ -23950,7 +23800,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.593203139196674</v>
+        <v>1.530452803342182</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.290071688173352</v>
@@ -24039,7 +23889,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.582266028949319</v>
+        <v>1.520822384109682</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.403944447183239</v>
@@ -24128,7 +23978,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.581731065311071</v>
+        <v>1.524999186520646</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.276786960204527</v>
@@ -24217,7 +24067,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.563341853990248</v>
+        <v>1.509371646879316</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.106842492460202</v>
@@ -24306,7 +24156,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.560853230457207</v>
+        <v>1.510219300860194</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.170035639629055</v>
@@ -24395,7 +24245,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.576668956666578</v>
+        <v>1.522505841102305</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.256152069055856</v>
@@ -24484,7 +24334,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.577152456683858</v>
+        <v>1.522989697849368</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.094405289511665</v>
@@ -24573,7 +24423,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.575475406398848</v>
+        <v>1.522259761223632</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.783173893995293</v>
@@ -24662,7 +24512,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.572000795805643</v>
+        <v>1.52379227720724</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.161185942895238</v>
@@ -24751,7 +24601,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.576066574531422</v>
+        <v>1.527225231521745</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.090158499525649</v>
@@ -24840,7 +24690,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.572077539092098</v>
+        <v>1.525814561649211</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.43973728934698</v>
@@ -24929,7 +24779,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.569743928447167</v>
+        <v>1.53051324145192</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.471100655068354</v>
@@ -25018,7 +24868,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.582149594569365</v>
+        <v>1.536525453321452</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.286060405079744</v>
@@ -25107,7 +24957,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.584477425752932</v>
+        <v>1.539803810300263</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.103742674669711</v>
@@ -25196,7 +25046,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.587418048202766</v>
+        <v>1.541502387850516</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.306400139589439</v>
@@ -25285,7 +25135,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.580120161177033</v>
+        <v>1.537322284623214</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.324065580805831</v>
@@ -25374,7 +25224,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.600829852643031</v>
+        <v>1.550473563444373</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.298874640518493</v>
@@ -25463,7 +25313,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.586262290126479</v>
+        <v>1.536385147899735</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.439076187789118</v>
@@ -25552,7 +25402,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.605788461822847</v>
+        <v>1.552619545995162</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.162962315876458</v>
@@ -25641,7 +25491,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.602288182521677</v>
+        <v>1.551486707694774</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.243797685570241</v>
@@ -25730,7 +25580,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.589004965291783</v>
+        <v>1.537591194200214</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.021412529775175</v>
@@ -25819,7 +25669,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.582299021100682</v>
+        <v>1.532884672163156</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.629888295147796</v>
@@ -25908,7 +25758,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.592262947503428</v>
+        <v>1.534138107029492</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.445471075470791</v>
@@ -25997,7 +25847,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.584176864583543</v>
+        <v>1.523997925398275</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.003966730312523</v>
@@ -26086,7 +25936,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.585915393923668</v>
+        <v>1.524830466008546</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.30703947315214</v>
@@ -26175,7 +26025,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.577001823787105</v>
+        <v>1.513298986327514</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.343068639868246</v>
@@ -26264,7 +26114,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.577409462613566</v>
+        <v>1.512454853597882</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.386699043730268</v>
@@ -26353,7 +26203,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.580389331843524</v>
+        <v>1.51941061511165</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.058465841926082</v>
@@ -26442,7 +26292,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.582412471490777</v>
+        <v>1.517086047279328</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.419296221166202</v>
@@ -26728,7 +26578,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.687094237409696</v>
+        <v>1.65557080345416</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.894917828982313</v>
@@ -26817,7 +26667,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.68696017658007</v>
+        <v>1.651064949566153</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.747179288299745</v>
@@ -26906,7 +26756,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.681268321034432</v>
+        <v>1.650472978058857</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.744109293488082</v>
@@ -26995,7 +26845,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.691769168891376</v>
+        <v>1.65167809224223</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.802334939495511</v>
@@ -27084,7 +26934,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.694487449650909</v>
+        <v>1.651454291952316</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.648872544355678</v>
@@ -27173,7 +27023,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.687569735198922</v>
+        <v>1.643313862207413</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.704414043651342</v>
@@ -27262,7 +27112,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.659790405745797</v>
+        <v>1.618496293281873</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.914031026043835</v>
@@ -27351,7 +27201,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.659049342209747</v>
+        <v>1.617745566567124</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.229488823200302</v>
@@ -27440,7 +27290,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.662861723584305</v>
+        <v>1.6241713706935</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.862521359879028</v>
@@ -27529,7 +27379,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.655577040187376</v>
+        <v>1.623673898791584</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.256462290360761</v>
@@ -27618,7 +27468,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.642095739145238</v>
+        <v>1.617503396407824</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.076323245332337</v>
@@ -27707,7 +27557,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.646444004812804</v>
+        <v>1.617860928263331</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.63348208177368</v>
@@ -27796,7 +27646,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.648410542798787</v>
+        <v>1.617371857861536</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.05794019520707</v>
@@ -27885,7 +27735,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.646912051247411</v>
+        <v>1.610691186654215</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.225687522298831</v>
@@ -27974,7 +27824,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.658023840706432</v>
+        <v>1.619955760147822</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.277308334826259</v>
@@ -28063,7 +27913,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.661183562917788</v>
+        <v>1.622089289287644</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.254600919454677</v>
@@ -28152,7 +28002,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.66099869710687</v>
+        <v>1.628950096764214</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.881956698651615</v>
@@ -28241,7 +28091,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.655639994939672</v>
+        <v>1.623748840270089</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.235277920441253</v>
@@ -28330,7 +28180,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.654113168245589</v>
+        <v>1.625754078359166</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.105664147283853</v>
@@ -28419,7 +28269,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.651655863011265</v>
+        <v>1.623391485874211</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.196053656723599</v>
@@ -28508,7 +28358,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.658820885300509</v>
+        <v>1.626467792438057</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.105253760915572</v>
@@ -28597,7 +28447,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.668018758941506</v>
+        <v>1.632603880303273</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.128756763447839</v>
@@ -28686,7 +28536,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.665029164713689</v>
+        <v>1.628173788585786</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.151763427733293</v>
@@ -28775,7 +28625,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.663625257769097</v>
+        <v>1.627798981784203</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.775156302368712</v>
@@ -28864,7 +28714,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.673097294329061</v>
+        <v>1.627883696129515</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.314147362725289</v>
@@ -28953,7 +28803,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.699520581209138</v>
+        <v>1.645254104793637</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.202174421953534</v>
@@ -29042,7 +28892,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.708812717574759</v>
+        <v>1.647824642441059</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.964028997327446</v>
@@ -29131,7 +28981,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.716631011647606</v>
+        <v>1.649460335378768</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.838496556172959</v>
@@ -29220,7 +29070,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.720186791236128</v>
+        <v>1.65493615674839</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.747050326645202</v>
@@ -29309,7 +29159,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.721870790647269</v>
+        <v>1.65206203683537</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.454274721824394</v>
@@ -29398,7 +29248,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.717657834343326</v>
+        <v>1.648054071029506</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.552813278207062</v>
@@ -29487,7 +29337,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.717902447358635</v>
+        <v>1.64460750764509</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.556388488642448</v>
@@ -29576,7 +29426,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.728595330984667</v>
+        <v>1.659060561557762</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.857745576317706</v>
@@ -29665,7 +29515,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.724652459145718</v>
+        <v>1.660168013158631</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.568203215928173</v>
@@ -29754,7 +29604,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.71767094959274</v>
+        <v>1.65246116362088</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.997349398051395</v>
@@ -29843,7 +29693,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.712916079068637</v>
+        <v>1.649074560455247</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.400687212423633</v>
@@ -29932,7 +29782,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.713561785656796</v>
+        <v>1.651128942329105</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.524670951826129</v>
@@ -30021,7 +29871,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.717710312581953</v>
+        <v>1.65349630822594</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.806763254179033</v>
@@ -30110,7 +29960,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.722250867941333</v>
+        <v>1.655065857654166</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.768087544122293</v>
@@ -30199,7 +30049,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.726414157760924</v>
+        <v>1.662000887672578</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.866870579359848</v>
@@ -30288,7 +30138,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.715868234295871</v>
+        <v>1.650424962734278</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.798820323783319</v>
@@ -30377,7 +30227,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.716353271210803</v>
+        <v>1.653848593261768</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.798636692781563</v>
@@ -30466,7 +30316,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.703262098686579</v>
+        <v>1.649856120037738</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.88262117798745</v>
@@ -30555,7 +30405,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.698885447146509</v>
+        <v>1.649193073063315</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.895043990841903</v>
@@ -30644,7 +30494,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.704842472861013</v>
+        <v>1.65604454841023</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.207640320858201</v>
@@ -30733,7 +30583,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.693705772116103</v>
+        <v>1.646717045842446</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.026194344565928</v>
@@ -30822,7 +30672,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.692966912963348</v>
+        <v>1.644272721895635</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.351811508711654</v>
@@ -30911,7 +30761,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.685338940882185</v>
+        <v>1.638868015816747</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.688269055657078</v>
@@ -31000,7 +30850,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.675737238515636</v>
+        <v>1.626516325895165</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.332382244936854</v>
@@ -31089,7 +30939,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.676331414239716</v>
+        <v>1.629105383797252</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.708227393873507</v>
@@ -31178,7 +31028,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.667652816897804</v>
+        <v>1.621947870239684</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.748562313503185</v>
@@ -31267,7 +31117,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.67164762782228</v>
+        <v>1.628009269817229</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.730422824563595</v>
@@ -31356,7 +31206,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.664302583370299</v>
+        <v>1.620016974348069</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.443311453176563</v>
@@ -31445,7 +31295,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.649490346936688</v>
+        <v>1.60468717220469</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.684620998502872</v>
@@ -31534,7 +31384,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.647139660514432</v>
+        <v>1.605657787070154</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.407851806033883</v>
@@ -31623,7 +31473,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.650231317570362</v>
+        <v>1.606089983594406</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.635936196235056</v>
@@ -31712,7 +31562,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.645324205192194</v>
+        <v>1.597430970100018</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.076875873890772</v>
@@ -31801,7 +31651,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.655956440876331</v>
+        <v>1.605236409118326</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.11866527009933</v>
@@ -31890,7 +31740,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.657072179990429</v>
+        <v>1.601797324010128</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.42458619287524</v>
@@ -31979,7 +31829,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.655152727543563</v>
+        <v>1.598847082448859</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.140701266278529</v>
@@ -32068,7 +31918,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.650684308817953</v>
+        <v>1.595096835350098</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.26032929333839</v>
@@ -32157,7 +32007,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.660380661235251</v>
+        <v>1.60254911347756</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.292292332031634</v>
@@ -32246,7 +32096,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.663141469891601</v>
+        <v>1.60216985478524</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.140379230259626</v>
@@ -32335,7 +32185,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.673191382073393</v>
+        <v>1.606454320243573</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.676630828864883</v>
@@ -32424,7 +32274,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.66929307427797</v>
+        <v>1.599195417009194</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.301891353343188</v>
@@ -32513,7 +32363,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.671642193035843</v>
+        <v>1.600392738560867</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.504568725688963</v>
@@ -32602,7 +32452,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.665866547046713</v>
+        <v>1.596849564627381</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.066143137299469</v>
@@ -32691,7 +32541,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.672437970684024</v>
+        <v>1.5986846100745</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.380392395297636</v>
@@ -32977,7 +32827,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.520958600005317</v>
+        <v>1.542384353263711</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.54501351572546</v>
@@ -33066,7 +32916,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.51629638620255</v>
+        <v>1.540352579220182</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.575678505546902</v>
@@ -33155,7 +33005,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.519766752981662</v>
+        <v>1.542396640007106</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.494580176884603</v>
@@ -33244,7 +33094,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.528363605211812</v>
+        <v>1.552144245116599</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.615428881714955</v>
@@ -33333,7 +33183,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.526198490954892</v>
+        <v>1.546102900199268</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.627475248400177</v>
@@ -33422,7 +33272,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.48445634016332</v>
+        <v>1.501933383613136</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.334712430236657</v>
@@ -33511,7 +33361,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.429020987171499</v>
+        <v>1.455561083324886</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.51561845637633</v>
@@ -33600,7 +33450,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.42679363601861</v>
+        <v>1.454099667319175</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.896297555628195</v>
@@ -33689,7 +33539,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.42783025391563</v>
+        <v>1.452989921602742</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.051197208862058</v>
@@ -33778,7 +33628,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.441551262997661</v>
+        <v>1.462748339421527</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.134709672210144</v>
@@ -33867,7 +33717,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.443786147913422</v>
+        <v>1.471670871373799</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.10903763873151</v>
@@ -33956,7 +33806,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.450079704619345</v>
+        <v>1.472929232004018</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.132302302612745</v>
@@ -34045,7 +33895,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.449851226825175</v>
+        <v>1.473066869191024</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.803601948736312</v>
@@ -34134,7 +33984,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.452711688036549</v>
+        <v>1.472275252915329</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.959013849298555</v>
@@ -34223,7 +34073,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.44274925542909</v>
+        <v>1.455044017915277</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.042383241455763</v>
@@ -34312,7 +34162,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.440565837112741</v>
+        <v>1.452211083706792</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.730091149725687</v>
@@ -34401,7 +34251,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.442368255701174</v>
+        <v>1.452516203001742</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.788215821872739</v>
@@ -34490,7 +34340,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.431624249521381</v>
+        <v>1.440934664932622</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.935652644302841</v>
@@ -34579,7 +34429,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.435891472531966</v>
+        <v>1.439956838961526</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.069593515936772</v>
@@ -34668,7 +34518,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.440764898874011</v>
+        <v>1.448855056909552</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.432187451060913</v>
@@ -34757,7 +34607,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.447526644086191</v>
+        <v>1.456133165769236</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.741086199419017</v>
@@ -34846,7 +34696,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.445488299070261</v>
+        <v>1.452817672455786</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.860389753333455</v>
@@ -34935,7 +34785,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.453335137986511</v>
+        <v>1.458786448086896</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.082095007385415</v>
@@ -35024,7 +34874,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.461813726485423</v>
+        <v>1.470898917372858</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.621671851843655</v>
@@ -35113,7 +34963,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.451943467431905</v>
+        <v>1.462180395601234</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.922804088957136</v>
@@ -35202,7 +35052,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.448614233228415</v>
+        <v>1.454745477902712</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.974022406216402</v>
@@ -35291,7 +35141,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.446393560335435</v>
+        <v>1.456542064277852</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.105775084751696</v>
@@ -35380,7 +35230,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.454821967199588</v>
+        <v>1.462584113857957</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.061569215093195</v>
@@ -35469,7 +35319,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.449949923495839</v>
+        <v>1.458405481514343</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.06065498716597</v>
@@ -35558,7 +35408,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.454846690340515</v>
+        <v>1.467224200449189</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.1411494552099</v>
@@ -35647,7 +35497,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.472122229602002</v>
+        <v>1.484515638399049</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.881076344602878</v>
@@ -35736,7 +35586,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.488077367190014</v>
+        <v>1.498831402444517</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.467088872154014</v>
@@ -35825,7 +35675,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.496717222775663</v>
+        <v>1.51311142925508</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.872662274156168</v>
@@ -35914,7 +35764,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.503475965698604</v>
+        <v>1.5143536805276</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.724144726430067</v>
@@ -36003,7 +35853,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.521043381667189</v>
+        <v>1.530689167556046</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.837183759656262</v>
@@ -36092,7 +35942,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.512842471221622</v>
+        <v>1.521132934088675</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.263286171851324</v>
@@ -36181,7 +36031,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.518671793025585</v>
+        <v>1.524527285392189</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.300060228782634</v>
@@ -36270,7 +36120,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.51819043955083</v>
+        <v>1.522115048679429</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.898253984244221</v>
@@ -36359,7 +36209,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.509096322565556</v>
+        <v>1.509683871774005</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.988221860282637</v>
@@ -36448,7 +36298,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.518532316392071</v>
+        <v>1.514718931358642</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.110923538412683</v>
@@ -36537,7 +36387,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.523556048358976</v>
+        <v>1.517216214414572</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.992730841809887</v>
@@ -36626,7 +36476,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.524157194278725</v>
+        <v>1.518958487139111</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.145845291006918</v>
@@ -36715,7 +36565,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.517883534202435</v>
+        <v>1.513002622829704</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.169535808197987</v>
@@ -36804,7 +36654,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.531062665451579</v>
+        <v>1.529897072568083</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.074488940719444</v>
@@ -36893,7 +36743,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.525831296644703</v>
+        <v>1.524229518575084</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.203226862666532</v>
@@ -36982,7 +36832,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.513803827385058</v>
+        <v>1.508378730978235</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.940318227149418</v>
@@ -37071,7 +36921,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.506590685994422</v>
+        <v>1.502785169022852</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.025208165983045</v>
@@ -37160,7 +37010,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.503864644107511</v>
+        <v>1.497036291958094</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.860948905943494</v>
@@ -37249,7 +37099,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.483742138976101</v>
+        <v>1.477448599407972</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.752453812945139</v>
@@ -37338,7 +37188,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.466333885100826</v>
+        <v>1.459580027333625</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.883658065460466</v>
@@ -37427,7 +37277,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.471827807606602</v>
+        <v>1.466919625684391</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.821903882778759</v>
@@ -37516,7 +37366,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.461630278050152</v>
+        <v>1.456741185823618</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.634182296692928</v>
@@ -37605,7 +37455,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.462186855566441</v>
+        <v>1.458355587376203</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.704586611458943</v>
@@ -37694,7 +37544,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.454688367605833</v>
+        <v>1.448043798851806</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.673266737307258</v>
@@ -37783,7 +37633,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.452984497716593</v>
+        <v>1.450727415123129</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.720242106871122</v>
@@ -37872,7 +37722,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.458956289345302</v>
+        <v>1.453971397283681</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.535869747234594</v>
@@ -37961,7 +37811,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.457327771245196</v>
+        <v>1.454543402336221</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.742419716078578</v>
@@ -38050,7 +37900,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.465275203170147</v>
+        <v>1.466801993435088</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.662709609232344</v>
@@ -38139,7 +37989,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.46396697004698</v>
+        <v>1.465091295786789</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.633841667081942</v>
@@ -38228,7 +38078,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.475253128202683</v>
+        <v>1.477422109524815</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.789413938836968</v>
@@ -38317,7 +38167,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.48411960211123</v>
+        <v>1.493536459436051</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.432174916493717</v>
@@ -38406,7 +38256,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.483243618251393</v>
+        <v>1.486707752488852</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.647057408167572</v>
@@ -38495,7 +38345,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.493990562802569</v>
+        <v>1.497831867779432</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.716801947735157</v>
@@ -38584,7 +38434,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.501354525773978</v>
+        <v>1.50565934407183</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.791749067601635</v>
@@ -38673,7 +38523,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.521781910179959</v>
+        <v>1.526869780765868</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.815934103604135</v>
@@ -38762,7 +38612,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.518116696790794</v>
+        <v>1.52009911110212</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.83038586338794</v>
@@ -38851,7 +38701,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.521972659363946</v>
+        <v>1.526403536694388</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.020356669247045</v>
@@ -38940,7 +38790,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.533900664752555</v>
+        <v>1.535721184810765</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.610224489582032</v>
@@ -39226,7 +39076,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.568440901839338</v>
+        <v>1.565630291883869</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.568089537811514</v>
@@ -39315,7 +39165,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.550992031360644</v>
+        <v>1.544159598598133</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.449512158704334</v>
@@ -39404,7 +39254,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.52921709110478</v>
+        <v>1.527335033106391</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.396789143048975</v>
@@ -39493,7 +39343,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.529801303241251</v>
+        <v>1.527471133936878</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.564125444173029</v>
@@ -39582,7 +39432,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.52586835277837</v>
+        <v>1.52559387707622</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.518387943846336</v>
@@ -39671,7 +39521,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.513591713234763</v>
+        <v>1.512544856185578</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.365517244332155</v>
@@ -39760,7 +39610,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.472693281913807</v>
+        <v>1.472926968811251</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.45770556876526</v>
@@ -39849,7 +39699,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.480414445792901</v>
+        <v>1.477458998075877</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.705750432795252</v>
@@ -39938,7 +39788,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.494059302926285</v>
+        <v>1.488153553745869</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.635437599184581</v>
@@ -40027,7 +39877,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.526297255812244</v>
+        <v>1.516337207409567</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.400642231098232</v>
@@ -40116,7 +39966,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.537761733463995</v>
+        <v>1.524239876299453</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.381424170364377</v>
@@ -40205,7 +40055,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.549685108448926</v>
+        <v>1.530815857301518</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.191413781832866</v>
@@ -40294,7 +40144,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.565628336015071</v>
+        <v>1.551210655973442</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.421532689172737</v>
@@ -40383,7 +40233,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.574231969231616</v>
+        <v>1.557186895673522</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.684568502575198</v>
@@ -40472,7 +40322,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.596533988401979</v>
+        <v>1.576095575339224</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.646146127523332</v>
@@ -40561,7 +40411,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.600015342751878</v>
+        <v>1.580675662087819</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.393112188950411</v>
@@ -40650,7 +40500,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.616259600005855</v>
+        <v>1.597552018098679</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.360007758168093</v>
@@ -40739,7 +40589,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.663207852978401</v>
+        <v>1.633915826227861</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.733729613435486</v>
@@ -40828,7 +40678,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.662136002124867</v>
+        <v>1.629153597497758</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.60756376743786</v>
@@ -40917,7 +40767,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.692008614563109</v>
+        <v>1.650728371712803</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.708637166485161</v>
@@ -41006,7 +40856,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.696395688779043</v>
+        <v>1.650859843421423</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.559606857295781</v>
@@ -41095,7 +40945,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.694479189268914</v>
+        <v>1.649207801233862</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.489056824730634</v>
@@ -41184,7 +41034,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.698909704468389</v>
+        <v>1.660351399499304</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.491692063706619</v>
@@ -41273,7 +41123,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.677187051060829</v>
+        <v>1.641033387564582</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.622495636623245</v>
@@ -41362,7 +41212,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.68423682579837</v>
+        <v>1.645141865764944</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.660239507208221</v>
@@ -41451,7 +41301,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.689709833145276</v>
+        <v>1.656125084438548</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.750220244517471</v>
@@ -41540,7 +41390,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.723703556602515</v>
+        <v>1.685439165241361</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.47400194507161</v>
@@ -41629,7 +41479,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.734615643109551</v>
+        <v>1.696556383824513</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.78031591692054</v>
@@ -41718,7 +41568,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.741610810588479</v>
+        <v>1.698808618133224</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.739279403371809</v>
@@ -41807,7 +41657,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.72181061531502</v>
+        <v>1.683898687792596</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.666361550333442</v>
@@ -41896,7 +41746,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.721668724609126</v>
+        <v>1.680042349361083</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.634041325593016</v>
@@ -41985,7 +41835,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.726816608008124</v>
+        <v>1.674398132567572</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.756318875245488</v>
@@ -42074,7 +41924,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.69057699786434</v>
+        <v>1.657624522443062</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.737387378005814</v>
@@ -42163,7 +42013,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.716716868165854</v>
+        <v>1.678489085734008</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.611411475317173</v>
@@ -42252,7 +42102,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.696991512736002</v>
+        <v>1.662371104111223</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.857138031582561</v>
@@ -42341,7 +42191,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.696389659314146</v>
+        <v>1.661070191851459</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.605444098782519</v>
@@ -42430,7 +42280,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.673295003461663</v>
+        <v>1.64151631603287</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.653317608022963</v>
@@ -42519,7 +42369,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.671713866735857</v>
+        <v>1.636316437249387</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.8383846870098</v>
@@ -42608,7 +42458,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.672987321983088</v>
+        <v>1.640749110805915</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.908717367028224</v>
@@ -42697,7 +42547,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.671186292990938</v>
+        <v>1.639452109757311</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.827628160769625</v>
@@ -42786,7 +42636,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.645560860715479</v>
+        <v>1.616080399818551</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.799469439579242</v>
@@ -42875,7 +42725,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.640158392969218</v>
+        <v>1.609287424843626</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.912887969535616</v>
@@ -42964,7 +42814,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.590130122016857</v>
+        <v>1.562976945708358</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.689116734359041</v>
@@ -43053,7 +42903,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.583653103350033</v>
+        <v>1.561563469447342</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.690230363694489</v>
@@ -43142,7 +42992,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.605459058962573</v>
+        <v>1.577159173052338</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.71801593544558</v>
@@ -43231,7 +43081,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.57935926994658</v>
+        <v>1.559778750884466</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.664049945801648</v>
@@ -43320,7 +43170,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.588324552309034</v>
+        <v>1.56502973638418</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.370920420851693</v>
@@ -43409,7 +43259,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.599613663234879</v>
+        <v>1.576223034702856</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.917835320075148</v>
@@ -43498,7 +43348,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.579322723074101</v>
+        <v>1.56189392619778</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.343126303526514</v>
@@ -43587,7 +43437,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.563268959787517</v>
+        <v>1.549440637805749</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.536575914808954</v>
@@ -43676,7 +43526,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.546921581369632</v>
+        <v>1.539323829121432</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.566142219442388</v>
@@ -43765,7 +43615,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.552050705595204</v>
+        <v>1.543160255992392</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.618658596403922</v>
@@ -43854,7 +43704,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.546383452181796</v>
+        <v>1.538375485228565</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.581036787134072</v>
@@ -43943,7 +43793,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.535559762997675</v>
+        <v>1.524061640395328</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.632737340870241</v>
@@ -44032,7 +43882,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.521551300577921</v>
+        <v>1.517516356816541</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.702117791847639</v>
@@ -44121,7 +43971,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.543351729264064</v>
+        <v>1.534796679391337</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.611127679295292</v>
@@ -44210,7 +44060,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.525253817588914</v>
+        <v>1.519666012737308</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.608385542051222</v>
@@ -44299,7 +44149,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.563581014435631</v>
+        <v>1.555184839220656</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.482932141391668</v>
@@ -44388,7 +44238,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.542588358602671</v>
+        <v>1.541600437994521</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.536714259873767</v>
@@ -44477,7 +44327,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.533554210011866</v>
+        <v>1.53639018437625</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.395146737393493</v>
@@ -44566,7 +44416,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.543227918311247</v>
+        <v>1.544015351133732</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.517060891477695</v>
@@ -44655,7 +44505,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.554511968252106</v>
+        <v>1.55472055760858</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.541885401644479</v>
@@ -44744,7 +44594,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.556225777830556</v>
+        <v>1.552901624838042</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.49100401141489</v>
@@ -44833,7 +44683,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.566158843125219</v>
+        <v>1.559319742096741</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.676346935416695</v>
@@ -44922,7 +44772,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.577017982158778</v>
+        <v>1.570243025752362</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.548008675956286</v>
@@ -45011,7 +44861,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.588397457855479</v>
+        <v>1.584485138614249</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.975069604927702</v>
@@ -45100,7 +44950,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.59169994416441</v>
+        <v>1.585557597552105</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.611583769933464</v>
@@ -45189,7 +45039,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.610743221844036</v>
+        <v>1.604008633840456</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.810347417463647</v>
